--- a/TSP/Solutions/TS.xlsx
+++ b/TSP/Solutions/TS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3975,6 +3975,3506 @@
         <v>5</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[46 19 32 45 30 43 37 21 15 40  4 47 31 29 42 16 26 18 36  5  6 17 27 35
+ 38 23  9 34 44  3 25 41  1 28 33  2 22 10 11 14  8  7  0 39 13 24 12 20]</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>14484</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[21 15 40 28  1 33 13 22 20 38 41  3 25 34 44  9 23 31 47  4 24 12 43 27
+ 29  5 36 18 16 26 42 35 11 46 10 19  6 17 30 37  7  0  8 32 45 14 39  2]</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" t="n">
+        <v>100</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[ 7  0  8 45 17  6 43 30 37 21 15 40 33  2 39 42 29 26 16 36 18  5 27 35
+ 46 20 38 31 23 44 34  3 25  1 28  4 24 13 12 47  9 41 22 10 11 19 32 14]</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>14642</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G104" t="n">
+        <v>100</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[24 13 15 21  0  7  8 40 28 44 34  3 25  1 33  2 32 19 46 20 12 22 10 11
+ 14 39 37 30 43  6 27 35 29  5 36 18 26 16 42 17 45 31 23  9 41  4 47 38]</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>14787</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>100</v>
+      </c>
+      <c r="G105" t="n">
+        <v>100</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[26 16 18 36  5 27 17  6 43 30 45 32 19 46 20 13 12 11 14 39  7 15 21  2
+ 33 47 41  9 34 44 23 38 31 10  8 37  0 40 28  1  3 25  4 24 22 35 29 42]</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>14836</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>100</v>
+      </c>
+      <c r="G106" t="n">
+        <v>100</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[17 43 30 37 39 21 15  2 24 13 12 19 42 16 26 29 45 14 22 10 11 32 18 36
+  5 27  6  8  0  7 40  1  3 25 34 44  9 23 41 47  4 28 33 38 31 20 46 35]</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>14852</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="n">
+        <v>100</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[35 14 11 32 19 20 31 23  9  3 41 44 34 25  1 28 40 33  2 21 15  0 12 10
+ 39  8  7 37 30 43  5 29 42 16 26 18 36 46 38 47  4 24 13 22 45 17  6 27]</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>14853</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>100</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[23 20 46 35 42 16 26 18 36 29  5 37  7  0 21 15  2 40 33 47  4 13 22 10
+ 27  6 17 43 19 11 14 32 45 30  8 39 12 24 38 31 28  1 41  9 34 44  3 25]</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>14915</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G109" t="n">
+        <v>100</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[ 8  7 37 36 18  5 29 45  0 15 40 24  4 41 25  3  1 28 33  2 21 39 46 20
+ 31 23 44 34  9 47 38 12 13 22 10 19 11 14 32 42 16 26 27 35  6 17 43 30]</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>14990</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G110" t="n">
+        <v>100</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[ 4 47 41  1 28 33 40 38 23  9  3 25 34 44 39  8 30 43 19 46 20 31 12 22
+  2 21 15  0  7 37 35 36 18 26 16 42 29  5 27  6 17 32 45 14 11 10 24 13]</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>15029</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>100</v>
+      </c>
+      <c r="G111" t="n">
+        <v>100</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[11 32 43 30 37  8  7  0 21 15 40 28 33  2 39 45 35 29 27 17  6  5 36 18
+ 26 16 42 19 46 20 44 34  3 25 41  9 23 31 38 13 22 14 10 47  1  4 24 12]</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>15068</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>100</v>
+      </c>
+      <c r="G112" t="n">
+        <v>100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[29 36 26 42 16 18  5 27  6 17 43 30 23 44 34 33 40 15 21  2 13 38 31 47
+  4 41  9 25  3  1 28 24 12 22 32 45 35 37  8  7  0 39 14 11 10 20 46 19]</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>15167</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>100</v>
+      </c>
+      <c r="G113" t="n">
+        <v>100</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[21 15  7  0  8 35 26 16 42 29 32 46 19 11 14 45 37 30 43 17  6 27  5 18
+ 36 39  1  3 25  4 47 38 20 12 10 22 13 33 40 28 41  9 34 44 23 31 24  2]</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>15220</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="n">
+        <v>100</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[35 37  7 21 28  4 47 38 42 16 26 29 27  6 17 43 30  8 39 32 11 22 10 12
+ 24 13 33  2  0 15 40  1  9 44 34  3 25 41 23 31 20 46 19 14 45  5 18 36]</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>15268</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" t="n">
+        <v>100</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[ 4 47 24 13 12 10 32 45  5 18 36 27  6 43 30 37  8 17 35 29 26 16 42 19
+ 44 34  3 25  9 41  1 28 40 15 21  0  7 39 14 11 46 38 23 31 20 22  2 33]</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>100</v>
+      </c>
+      <c r="G116" t="n">
+        <v>100</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[22 39  8  7  0 15 21  2 40  1  3 25  9 23 44 34 41 31 29  5 18 36  6 30
+ 37 45 14 11 10 12 38 20 46 19 32 35 27 42 16 26 17 43 13 24 47  4 28 33]</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>15369</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>100</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[20 33  2 22 39 32 35  5 26 16 42 31  9 25  3 34 44 23 38 14 45 43 30 37
+  8  7  0 21 15 40 28  1 41  4 47 24 13 12 10 11 17  6 27 36 18 29 19 46]</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>15389</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
+        <v>100</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[34 44 23 31 38 41 25  3  1 28  4 47 20 24 13 40 15 14 11 19 32 45 42 16
+ 26 29 35 17 27 36 18  5  6 43 30  0 21  2 33 12 46 22  7 37  8 39 10  9]</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>15449</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" t="n">
+        <v>100</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[46 12 38 20 29 36  5 35 30 37  7  0  8 39 22 13 47 25  3  9 23 41  4 28
+  1 34 44 31 24 33 40 15 21  2 10 11 32  6 27 18 26 16 42 17 43 14 45 19]</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>15454</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G120" t="n">
+        <v>100</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[32 19 11 46 31 41 25  3  1 28 40  4 47  9 34 44 23 38 24  2 15 21 20 12
+ 13 33 10 22 35  5 29 18 36 26 16 42 27  6  7  0  8 37 30 43 17 45 39 14]</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>15463</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>100</v>
+      </c>
+      <c r="G121" t="n">
+        <v>100</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[ 0 22 12 46 19 14 45 32 11  2 21 15 40 28  1  3 25  4 33 39 29 18 36  5
+  6 27 26 16 42 20 31 44 34  9 23 41 47 38 24 13 10 35 17 43 30 37  8  7]</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>15676</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>100</v>
+      </c>
+      <c r="G122" t="n">
+        <v>100</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[ 5 16 42 19 46 20 31 38 12 13 33 47  4  1 28 40  7 37 14 10 24 23 44 34
+  3 25  9 41 15 21  0  8 30  6 27 29 26 18 36 35 45 32 11 22  2 39 43 17]</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>15683</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="n">
+        <v>100</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[18 26 42 16 44 34  3 25  1 28 40 15  0 21 39 10 11 14 32 22 12 13  2 33
+ 24 38 47  4 41  9 23 31 20 46 19 35 17 45  8  7 37 29 27  6 30 43  5 36]</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>15749</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="n">
+        <v>100</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[ 6 30  8  7  0  2 20 31 23  9 25  3 44 34 47  4 28  1 41 38 46 19 42 16
+ 32 11 14 45 17 36  5 43 37 39 22 10 12 24 13 33 40 15 21 35 29 26 18 27]</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>15764</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>100</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[41  9 34 44 23 31 20 46 29 26 18  5 27  6 36 16 42 14 22 24 47  4  1  3
+ 25 28 39 37 30 43 17 35 11 13 33  2 40 15 21  0  7  8 45 32 19 10 12 38]</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15887</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>100</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[27 20 31 38 12 46 19 11 14 39  8  0  7 37 30 17 35 29 23 44 34  3 25  1
+ 28 41  9 47  4 24 13 45 43 32 10 22 33 40 15 21  2  6 42 16 26 18 36  5]</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>15922</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" t="n">
+        <v>100</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[ 5 36 18 26 16 42 29 19 12 24 38 20 45 43 17  6 27 35 32 22  2 21 15 40
+  1 28 13 11 14 37  7  0  8 39 46 31 25  3 34 44  9 23 41 47  4 33 10 30]</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>100</v>
+      </c>
+      <c r="G128" t="n">
+        <v>100</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[25  9 23 47  4 38 31 41  1 28 33  2 14 45 43 17 19 20 24 13 12 46 21 15
+ 40 22 11 32  6 27  5 36 18 16 26 42 29 35 10 39 30 37  8  7  0 44 34  3]</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>100</v>
+      </c>
+      <c r="G129" t="n">
+        <v>100</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[17  5 29 27  6 43 35 42 16 26 18 36 45 30 32 14 12 13 33  2 39 21 15 40
+  1 28  4 47 41  9 23 24 22 11 19 46 31 44 34  3 25 38 20 10 37  8  0  7]</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>16105</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[14 32 45 30 43  6 26 16 42 27 35 17 37  0  7  8 39 13 33 40 15 21  2 22
+ 10 46 19 29 18 36  5 47 41  9  1 28 11 12 24  4 25  3 34 44 23 31 38 20]</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>16152</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" t="n">
+        <v>100</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[33 13 24 44 34  3 25 41 23  9 31 35 27  6 42 16 26 18 36  5 29 19 46 22
+ 10 21  0  8  7 37 30 17 43 45 32 28  1 40 15  2 39 14 11 12 20 38 47  4]</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>16155</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>100</v>
+      </c>
+      <c r="G132" t="n">
+        <v>100</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[28  3 34 44 41  4 47 31 20 46 12 22 13 24 38  5 36 18 26 16 42 29 27 17
+ 43 30 37  7 45  6 35 19 23  9 25  1 40 15  2 21  0  8 14 32 11 10 39 33]</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>16176</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>100</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[11 14  7  0 21  2 40 28 41  4 47 33 15 39 10 22 13  9 44 34 23 31 20 12
+ 38  3 25  1 24 46 19 32  5 36 18 26 16 42 29 27 30 37  8 43  6 17 35 45]</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>16222</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" t="n">
+        <v>100</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[24 12 10 39 14 45 17  6 43 30 37  1  3 25 41 20 46 19 42 16 26 36 18  5
+ 29 27 35 32 11 22  9 34 44 23 13  2  0  7  8 21 15 33 40 28  4 47 31 38]</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>16232</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>100</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[ 6 17 37  7  0  8 30 43 36 18 16 29 11 10 14 45  5 26 42 46 22 12 20 24
+ 13  2 33 28  1  3 25 41 47  4 40 15 21 39  9 34 44 23 31 38 19 32 35 27]</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>16270</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" t="n">
+        <v>100</v>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[13 24 38 23  3 25 47 45  5 18 36 26 16 42 29 17 30 37  0  7 15 21 39 32
+ 43 27 35  6 19 46 12 22 10  8 14 11 20 31 44 34  9 41  4 28  1 40 33  2]</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>16270</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="n">
+        <v>100</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[18 16 26  6 43 45 32 11 33 25  3  4 47 24 13 14 17 27 35 19 46 12 22 10
+ 39 15 21  2 40 28  1 41  9 34 44 23 31 38 20 42 29 30 37  7  0  8  5 36]</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>16324</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" t="n">
+        <v>100</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[46 19 32 14 11 10  2 21 15 40  9 34 44 23 31 29 27 35  6  5 36 18 26 16
+ 42 30 37  7  0  8 47  4 28  1  3 25 41 38 24 12 45 17 43 39 22 33 13 20]</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>16328</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="n">
+        <v>100</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[15 21 39 14 45 32 35  6 43 30 37  7 40 33 24 38 23 31 20 16 26 42 46 10
+ 11 19 29 18 36  5 27 17  8  0 22 12 28  4  1  3 25  9 44 34 41 47 13  2]</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>16334</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>100</v>
+      </c>
+      <c r="G140" t="n">
+        <v>100</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[15 40  1 44 34 25  3 31 38 45 30 43 17 35  5 36 18 16 26 27  6 37  7  0
+ 21  8 14 32 29 42 19 46 33 28 47 23  9 41  4 13 22 24 20 12 10 11 39  2]</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>16368</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G141" t="n">
+        <v>100</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[25 40 15  2 46 19 32 11 14 22 33 10 35 29 42 18  5  6 43 30 37  8  7  0
+ 21 39 45 17 27 36 26 16 23  9 41  1 28  4 47 38 31 20 12 13 24 44 34  3]</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>16406</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="n">
+        <v>100</v>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[28 41  9 23 31 20 46 39 14 32 43 36 18 26 16 42  5  6 17 35 45 11 38 47
+  4 24 12 33 13 15 21  2 10 22  0  7  8 37 30 27 29 19 44 34  3 25  1 40]</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>16427</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" t="n">
+        <v>100</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[12 46 19 32 14 11 10 20 38 31 23 44 34 35 29 42 16 26 18 36  5 27  6 45
+  8 21 15 40 28  1  3 25  9 24 13  2  0  7 37 30 43 17 39 22 47 41  4 33]</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>16442</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>100</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[ 3  1 41 34 44 23 47 33 22 32 26 29 19 13 24 12 20 46 31 38  4 28 40 15
+  2 39 11 14 21  0  7  8 37 30 43  6 35 45 17 27  5 36 18 16 42 10  9 25]</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16454</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
+      </c>
+      <c r="G145" t="n">
+        <v>100</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[19 46 12 38 31 44 34  1 28 40  2 15 21  0 39 14 45 30  6 18 36 16 26 42
+ 20 47  4 41 25  3  9 23 33  7  8 35 29  5 27 17 43 37 11 22 13 24 10 32]</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>16475</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G146" t="n">
+        <v>100</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[ 6 35 27 36  5 11 13 33 40  2 14 45 29 42 16 18 26 32 39 21 15  0  7 24
+ 47  4 41 28  1 25  3 34 44  9 23  8 37 30 17 43 10 22 12 38 31 20 46 19]</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>16511</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>100</v>
+      </c>
+      <c r="G147" t="n">
+        <v>100</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[ 1 40 33 13  2 21 15  7  0 39 32 35  6 17 43 30 37  8 22  9 34 44 23 38
+ 12 20 31 47  4 28 24 19 46 11 10 14 45 27 36 18 26 16 42 29  5 41 25  3]</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>16528</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" t="n">
+        <v>100</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[39 21 15 40 28  1 41  3 25 44 34  9 23 14 32 45  5 36 18 19 46 20 24 13
+ 11 29 42 16 26 27 17 43 30  6 35 37  8 47  4 31 38 33  2  7  0 22 12 10]</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>16648</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>100</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[19 35 17  6 43 30 37  8 40 33 45 27  5 36 18 29 46 12 28  1  3 25  4 24
+ 13 22 10 11  2 21 15  7  0 39 14 32 42 26 16 31 23 34 44  9 41 47 38 20]</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>16690</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G150" t="n">
+        <v>100</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[11 32  8  7 37 30 36 18 29 27  6 45 39 22 24 47  4 41 25  3  9 34 23 44
+ 31 38 20 46 19 35 17 43 14  2 21 15  0  5 26 16 42 12 28  1 40 33 13 10]</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>16721</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>100</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[34 44 45 29  5 36 18 26 16 42 19 24 12 13 33 28  4 47 11 14 32 35 27  6
+ 17 43 30 37  8 39 10 22  2 40 15  0  7 21  1  3 25  9 23 31 20 46 38 41]</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>16802</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>100</v>
+      </c>
+      <c r="G152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[ 4 47 33 40 21 15  0  7  8 37 17 35 29 27 43 45 32 46 24 41  3 25 31 38
+ 13  2 39 30  6  5 36 18 26 16 42 19 14 22 28  1 34 44  9 23 20 11 10 12]</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>16838</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>100</v>
+      </c>
+      <c r="G153" t="n">
+        <v>100</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[ 6 17 43 30 37  8  2 33  4 40 15 21  0  7 14 11 38 31 47 28  1 25  3 41
+ 32 36 18 26 16 42  5 29 19 46 23 34 44  9 20 10 12 24 13 22 39 45 35 27]</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>16879</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>100</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[32 14 11 39  8  0 15 21  2 10 42 16 26 35 45 22 12 13 24  9 44 34  3 25
+  1 28 40 38 31 23 47 41  4 33  7 37 30 43  6  5 27 17 46 20 19 29 36 18]</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>16914</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>100</v>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[46 43 30 37 22  2 21 15 40 33 13 12 11 14 32  8  7  0 39 17 35 26 16 18
+ 36 29  5 27  6 45 10 24 28  1 47 19 42 20 31 23 25  3 34 44  9 41  4 38]</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>16928</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>100</v>
+      </c>
+      <c r="G156" t="n">
+        <v>100</v>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[28  1  9 41  4 47 29 18 36  5 10 22 13 24 12 31 20 46 19 42 16 26 27 35
+  6 17 43 30 37  7  0 38 25  3 34 44 23 40  2 39 14 11 32 45  8 15 21 33]</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>16978</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
+      </c>
+      <c r="G157" t="n">
+        <v>100</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[36  5 27 35 19 20 31 38 14 17  6 46 23 44 34  9 41  4 47 24 10 32 45 43
+ 30  8 15 40 33 28  1  3 25 13  2 21 39 11 12 22  0  7 37 29 42 16 26 18]</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>16979</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" t="n">
+        <v>100</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[13 10 35 27 36 18  5 29 26 16 42  6 32 11 46 12 24 41  9 25  3 34 44 23
+ 38 22 39  8  2 21 15  0  7 37 43 17 19 20 31  1 40 30 45 14 33 28 47  4]</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>17046</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>100</v>
+      </c>
+      <c r="G159" t="n">
+        <v>100</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[34 44  9 23 31 38 13 22 10 12 24 46 19 17 27 35 32 45 30 37 15 40 33 28
+  1 25 47 20 29 26 36  7  0 21  8 43  6  5 18 16 42 11 14 39  2  4 41  3]</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>17062</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>100</v>
+      </c>
+      <c r="G160" t="n">
+        <v>100</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[ 7  8 37 30 43  6 27 29 26 16 42 46 20 11 32 14 22 13 24 38 31 19  0 21
+ 15  2 33 47  1 41  4 10 35  5 18 36 17 45 39 12 23  9 44 34  3 25 28 40]</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>17140</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>100</v>
+      </c>
+      <c r="G161" t="n">
+        <v>100</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[27  6 17 43  7  0 21 15 40 25  3 34 44  9 23 19 45 30 37  8 33  4 47 42
+ 26 16 18 36  5 29 35 32 11 14 39 22  2 10 46 20 12 24 13 28  1 41 38 31]</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>17141</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>100</v>
+      </c>
+      <c r="G162" t="n">
+        <v>100</v>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>[11 12 13 24 47 23 31 38 20 27 29  5 36 18 26 16 42 44 34  9 41  4 33  2
+ 22 46 19 35  6 17 43 30 45 32 14  0 21  3 25  1 28 40 15  7 37  8 39 10]</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>17146</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>100</v>
+      </c>
+      <c r="G163" t="n">
+        <v>100</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[36 27 19 31 23  3 25  1 40 21  0  8 39  2 22 12 20 46 11 10 38 44 34  9
+ 41 28 15  7 37 30  6 29 17 43 45 14 13 33  4 47 24 32 35 42 16 26 18  5]</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>17159</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>100</v>
+      </c>
+      <c r="G164" t="n">
+        <v>100</v>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[17  6 27 32 19 10 20 46 12 39 14 29 42 31 38 47 41  9 23  4 33 40 15 21
+  8  0 22 34 44  3 25  1 28 24 13  2  7 37 30 43 35 36 18 16 26  5 11 45]</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>17196</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>100</v>
+      </c>
+      <c r="G165" t="n">
+        <v>100</v>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>[ 8 37 30 45 19 38 31 13 35 27  6 17 43 14 11 20 23  9 34 44 41  4 28 40
+ 33 22 32 42 26 16 18 36  5 29 46 12 24 47 25  3  1  2 39 10 21 15  0  7]</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>17254</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G166" t="n">
+        <v>100</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>[29 42 31 23  9 41 13  2 21  0 14 11 19 35 32 12 38 47  4 24 22 10 46 39
+ 27 26 16 18 36  5  6 17 43 45 30 37  8  7 15 40 33 28  1 25  3 34 44 20]</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>17307</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>100</v>
+      </c>
+      <c r="G167" t="n">
+        <v>100</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[21 39 14 11 32 26 18 36  6  7  0 13  4  1 28 33  2 22 10 12 24 47 41  9
+ 25  3 31 42 16 29  5 27 35 17 45  8 37 30 43 19 46 20 38 23 44 34 40 15]</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>17452</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>100</v>
+      </c>
+      <c r="G168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>[19 42 26  5 29 10 46 12 24  2 21  8 37 45 14 39  0 15  7 30 43 17  6 35
+ 32 33 40  1 28 25  3 34 44  9 23 31 38 13 22 11 27 36 18 16 47 41  4 20]</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>17468</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>100</v>
+      </c>
+      <c r="G169" t="n">
+        <v>100</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>[47  4  9 23 38 11 14 39 21 15  0  7 37 30  6 17 35 29  5 27 43 45 32 28
+ 25  3 34 44 31 46 19 10 22 12 20 24 13 33  2  8 36 18 26 16 42 40  1 41]</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>17470</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>100</v>
+      </c>
+      <c r="G170" t="n">
+        <v>100</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>[28  1 25  3 34 44 35  6 43 30  8  7 37 45 39  0 15 21  2 22 10 47 41  4
+ 13 11 14 32 20 31 23  9 38 46 17 27 42 16 26 36 18  5 29 19 12 24 33 40]</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>17506</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+      <c r="G171" t="n">
+        <v>100</v>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>[40 41 25  3  9 23 31 46 19 10 12 13 22 11 32 14 33 28  4 24 29 18 36 27
+  6 17 45 30 43 35  5 26 16 42 20 38 44 34  1 47  2 39 37  8  7  0 21 15]</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>17583</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G172" t="n">
+        <v>100</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>[27 43  6 17 35 45 14 11 10  4 47 38 12 46 20 31 23  9 25  3 34 44 16 42
+ 19 22 13 24 41 28  1 40 33  2 15 21 37 29 26 32 39  0  7  8 30 36 18  5]</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>17605</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+      <c r="G173" t="n">
+        <v>100</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>[ 0  7 37 30  8 21 15 28  1 41  9 23  4 33 40  2 39 14 45 12 25  3 34 44
+ 26 16 42 19 17  6 27 29 18 36  5 35 43 32 11 10 22 13 24 47 31 38 20 46]</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>17625</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>100</v>
+      </c>
+      <c r="G174" t="n">
+        <v>100</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>[27  5 35 46 24 13 33  2 15 21 39 14 32 36 18 29 20 38  9 25  3  1 28 40
+  7 37 30  8  0 10 22 11 19 42 16 26 31 23 44 34 41  4 47 12 45 43 17  6]</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>17685</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G175" t="n">
+        <v>100</v>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[47 38 42 16 36 18 26 19 20 12 46 11 45 37  8  7  0 39 14 32 27  5 29 10
+ 22 24  9 25  3 34 44 23 31 35  6 17 43 30 21 15 28 41  1 40 33  2 13  4]</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>17737</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>100</v>
+      </c>
+      <c r="G176" t="n">
+        <v>100</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[11 39  8 21 15  0  7  2 47  9  3 25 31 20 35 27 29 18 36  6 43 30 37 17
+  5 26 16 42 19 46 12 22 13 10 24 38 41  1 28 40 33  4 34 44 23 32 45 14]</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>17750</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>100</v>
+      </c>
+      <c r="G177" t="n">
+        <v>100</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>[25 23 41 11 32  5 26 16 42 29 35 43 30  8  0 21 40  1 28  4 47 13 10 22
+ 33 38 31 24  2 39 14 45 17  6 46 20 12 19 18 36 27 37  7 15  9 44 34  3]</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>17760</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="n">
+        <v>100</v>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[18 26 16 42 19 31 44 34 41  2 40 28  1  3 25  9 23 47  4 33 32 35 29 46
+ 20 38 24 13 10 22 21 15  7  0 39 45 43  6 36  5 27 17 30 37  8 14 11 12]</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>17786</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>100</v>
+      </c>
+      <c r="G179" t="n">
+        <v>100</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[ 5 18 36 27 43 30 37  7  2 22 33 40  1  3 25 41 46 19 17  6 45 21 15 28
+  9 34 44 23 31 24 12 11 32 14 39  0  8 29 26 16 42 20 38 47  4 13 10 35]</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>17786</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>100</v>
+      </c>
+      <c r="G180" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[ 4 47 41  9 34 44 23 38 24 40 15  0  7  8 27  5 29 19 25  3 31 12 45 35
+  6 43 17 30 37 14 32 11 39 21  2 22 10 36 18 26 16 42 46 20 13 33 28  1]</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>17791</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>100</v>
+      </c>
+      <c r="G181" t="n">
+        <v>100</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>[37 30 43 17 35 19 20 31 23 44 34  3 25  9 39  0  7 21  2  4 41 47 38 29
+  5 27  6 32 46 12 22 24 13 10 11 42 16 26 18 36 45 14 15 40  1 28 33  8]</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>17837</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
+      </c>
+      <c r="G182" t="n">
+        <v>100</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[22 10 11 39  0  7 37 30 43 36  5 25  3  1 28 13 46 12 24 14 35 29 18 26
+ 16 42 27  6 17  8  2 33  4 47 38 20 19 32 45 31 23 44 34  9 41 40 15 21]</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>17840</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G183" t="n">
+        <v>100</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[29  2 33 28  1 40 15  0 21  7  8 39 14 19 44 34  9 47 45 35 27  6 17 43
+ 30 37 10 22 13  4 38 31 41  3 25 23 20 24 12 46 11 32  5 36 18 16 42 26]</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>17881</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>100</v>
+      </c>
+      <c r="G184" t="n">
+        <v>100</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[26 16 42 31 25  3 39 14 19 20 38 47  4  1 28 13 12 24 33 21  2 22 10 32
+ 45 30 37  8  7  0 15 40 41 23 44 34  9 46 11 43  6 27  5 18 36 17 35 29]</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>17979</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>100</v>
+      </c>
+      <c r="G185" t="n">
+        <v>100</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>[19 32 45 14 39 37 30 43 36 18 31 23 44 34  9 41 28 13  6 27  5 29 26 16
+ 42 20 25  3  1 40  7  8  0 15 21  2 33 24  4 47 38 12 22 10 17 35 11 46]</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>18028</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>100</v>
+      </c>
+      <c r="G186" t="n">
+        <v>100</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[16 26 18 36 27 37  7  8 14 46 12 13 33 22 19 29  5  6 17 35 11 10 24 47
+  4 28 40 15 21  0  2  9 44 34  3 25  1 39 30 43 45 32 20 31 41 23 38 42]</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>18121</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>100</v>
+      </c>
+      <c r="G187" t="n">
+        <v>100</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>[ 6 27  5 36 29 20 24 28  1 40 15 21  0 45 35 18 16 26 42 31 41  9 34 25
+  3 44 23 46 19 43 30 12 38  4 47 13 10 11 14 39  8 37  7  2 33 22 32 17]</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>18180</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G188" t="n">
+        <v>100</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[18 26 42 44 34 41  4 28 33 39 37 45 20 31 38 47 23  9 25  3  1 40  2 14
+  5 36 27 17 30  7 15 21  0  8 10 46 19 35  6 32 12 24 13 22 11 43 29 16]</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>18400</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>100</v>
+      </c>
+      <c r="G189" t="n">
+        <v>100</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>[31 20 42 16 19 10 12 24 13 22  2 47  4  9 41 28 33 15 21 39 11 14 45 32
+ 29  5 36 18 26 25  3  1 40  0  7  8 37 30 43 17  6 27 35 46 38 44 34 23]</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>18464</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>100</v>
+      </c>
+      <c r="G190" t="n">
+        <v>100</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[ 5 27  6 17 30 43 37  7 15 21  8  0 39 14 45 16 18 36 29 19 10 22 34 44
+ 23 38 24 13 40  2 33  4 28  1 25  3  9 46 26 42 20 31 41 47 12 11 32 35]</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>18578</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>100</v>
+      </c>
+      <c r="G191" t="n">
+        <v>100</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[45 32 11 22 13  3 25 41 12 42 16 26 18 35 15 40 33  2 21  0  7  8 39 20
+ 46 19 29  5 36 27 43 30 14 10 24  9 23 34 44 31 38 47  4  1 28 37  6 17]</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>18858</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
+      </c>
+      <c r="G192" t="n">
+        <v>100</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[33 22 35  5 36 18 16 42 19 31 23  4 47 38 20 46 12 24 13 39  8  0 40 15
+ 21  7  6 27 26 29 17 43 30 37  2  1  3 25 10 11 14 45 32 44 34  9 41 28]</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>18918</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>100</v>
+      </c>
+      <c r="G193" t="n">
+        <v>100</v>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[22  2 33  4 41 47 12 19 26 16 42 10 24 13 15 21 40 34 44 23 31 46 14  0
+ 28  1  3 25  9 38 20 11 45 43 30 37  7  8 39  6 17 27  5 36 18 29 35 32]</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>18920</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
+      </c>
+      <c r="G194" t="n">
+        <v>100</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[31 27 17 32 46 24 12 22  2 21  0 37  7  8 13 38 44 34 41 40 15 33 28 47
+  4 29 42 26 16 18 36  5  6 43 30 39 10 11 14 45 35 19 20  1 25  3  9 23]</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>18963</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>100</v>
+      </c>
+      <c r="G195" t="n">
+        <v>100</v>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>[37  0 15 40 33 38 31 11 14 45  8 39 22 13  4  1 28 10 46 12  3 25 23 20
+ 19 42 29 27 17  6 36 18 16 26  5 35 32 47 41  9 34 44 24  2 21  7 30 43]</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>18981</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>100</v>
+      </c>
+      <c r="G196" t="n">
+        <v>100</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[23 31 42 16 26  6 35 17 37  7  8 45 14 11 10 47 44 34 40 15  0 30 43 39
+ 21  2 22 12 20 38  3 25  1 28 33 19 32 27  5 36 18 29 46 13 24  4 41  9]</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>18982</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>100</v>
+      </c>
+      <c r="G197" t="n">
+        <v>100</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>[31 46 19 29 27  6  8  0 21 15  7 37 30 45 14 11 20 12 22 39 43 35 32 23
+ 44 34 41 38 24 13 47  4 28  1 40 33 10  5 36 18 26 16 42 17  2  3 25  9]</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>19031</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>100</v>
+      </c>
+      <c r="G198" t="n">
+        <v>100</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>[26 30 37  8  7 21 40 33  2 15 13 10 14 43  6 17 11 25  3 34 44 31 20 38
+  4  1 41  9 23 12 22  0 39 32 45 35 27 36 18  5 29 24 28 47 46 19 42 16]</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>19141</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>100</v>
+      </c>
+      <c r="G199" t="n">
+        <v>100</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[32 11 41 25  3  1 28 30 43 17  6 26 16 42 19 12 23 47 46 14 37  8  7  0
+ 15 21 39 20 31 38 24 13 10 22  2 40 33  4  9 34 44 29 18 36  5 27 35 45]</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>19230</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>100</v>
+      </c>
+      <c r="G200" t="n">
+        <v>100</v>
+      </c>
+      <c r="H200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>[11 45 30 37  8  7  0 21  2 33 28  1 40 15 43 36  5 27  6 17 41  3 25 31
+ 42 26 16 18 29 35 13  4 47 38 46 19 20 12 24 22 10 32 14 39  9 34 44 23]</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20277</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Swap_tabu</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>100</v>
+      </c>
+      <c r="G201" t="n">
+        <v>100</v>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
